--- a/docs/mobile-attack-v11.3/mobile-attack-v11.3-software.xlsx
+++ b/docs/mobile-attack-v11.3/mobile-attack-v11.3-software.xlsx
@@ -1507,7 +1507,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -1576,7 +1576,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -1609,13 +1609,13 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -1627,7 +1627,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -1687,7 +1687,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -1699,7 +1699,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -1723,7 +1723,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,</t>

--- a/docs/mobile-attack-v11.3/mobile-attack-v11.3-software.xlsx
+++ b/docs/mobile-attack-v11.3/mobile-attack-v11.3-software.xlsx
@@ -1507,7 +1507,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -1516,7 +1516,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -1528,7 +1528,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
+    <t>,(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Charger)</t>
@@ -1576,7 +1576,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy)</t>
+    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -1597,7 +1597,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -1615,7 +1615,7 @@
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -1627,7 +1627,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
+    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -1687,7 +1687,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -1699,7 +1699,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>

--- a/docs/mobile-attack-v11.3/mobile-attack-v11.3-software.xlsx
+++ b/docs/mobile-attack-v11.3/mobile-attack-v11.3-software.xlsx
@@ -1486,7 +1486,7 @@
     <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -1507,7 +1507,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
+    <t>,(Citation: Cofense Anubis),(Citation: Zimperium z9),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -1516,7 +1516,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -1528,7 +1528,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Charger)</t>
@@ -1576,7 +1576,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -1627,7 +1627,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -1687,7 +1687,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -1699,7 +1699,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -1714,7 +1714,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
+    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -1723,7 +1723,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,</t>

--- a/docs/mobile-attack-v11.3/mobile-attack-v11.3-software.xlsx
+++ b/docs/mobile-attack-v11.3/mobile-attack-v11.3-software.xlsx
@@ -1483,10 +1483,10 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
-  </si>
-  <si>
-    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+  </si>
+  <si>
+    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -1507,7 +1507,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Cofense Anubis),(Citation: Zimperium z9),(Citation: Trend Micro Anubis)</t>
+    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -1516,7 +1516,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -1528,7 +1528,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
+    <t>,(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Charger)</t>
@@ -1576,7 +1576,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
+    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -1597,7 +1597,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -1687,7 +1687,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -1699,7 +1699,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>

--- a/docs/mobile-attack-v11.3/mobile-attack-v11.3-software.xlsx
+++ b/docs/mobile-attack-v11.3/mobile-attack-v11.3-software.xlsx
@@ -1483,7 +1483,7 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
@@ -1507,7 +1507,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Cofense Anubis),(Citation: Zimperium z9),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -1516,7 +1516,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -1576,7 +1576,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -1597,7 +1597,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -1609,7 +1609,7 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
@@ -1687,7 +1687,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -1714,7 +1714,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
+    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -1723,7 +1723,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,</t>
